--- a/ig/sd-jeu-de-valeur-phase-de-lessai/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-jeu-de-valeur-phase-de-lessai/StructureDefinition-eclaire-researchstudy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T10:17:49+00:00</t>
+    <t>2023-07-28T13:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -894,28 +894,25 @@
     <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
   </si>
   <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-phase-vs</t>
+  </si>
+  <si>
+    <t>StudyProtocolVersion.phaseCode</t>
+  </si>
+  <si>
+    <t>Study Phase</t>
+  </si>
+  <si>
+    <t>ResearchStudy.category</t>
+  </si>
+  <si>
+    <t>Type d'essai  / Study type : type of study</t>
+  </si>
+  <si>
+    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
+  </si>
+  <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes for the stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-phase</t>
-  </si>
-  <si>
-    <t>StudyProtocolVersion.phaseCode</t>
-  </si>
-  <si>
-    <t>Study Phase</t>
-  </si>
-  <si>
-    <t>ResearchStudy.category</t>
-  </si>
-  <si>
-    <t>Type d'essai  / Study type : type of study</t>
-  </si>
-  <si>
-    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
   </si>
   <si>
     <t>Codes that describe the type of research study.  E.g. Study phase, Interventional/Observational, blinding type, etc.</t>
@@ -1778,8 +1775,8 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.97265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.69140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="52.18359375" customWidth="true" bestFit="true"/>
@@ -6437,13 +6434,11 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6476,7 +6471,7 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>275</v>
@@ -6485,7 +6480,7 @@
         <v>276</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6493,10 +6488,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6522,10 +6517,10 @@
         <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>271</v>
@@ -6554,10 +6549,10 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>37</v>
@@ -6578,7 +6573,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6593,7 +6588,7 @@
         <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>275</v>
@@ -6602,7 +6597,7 @@
         <v>276</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>37</v>
@@ -6610,10 +6605,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6639,10 +6634,10 @@
         <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>271</v>
@@ -6671,10 +6666,10 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>37</v>
@@ -6695,7 +6690,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6710,7 +6705,7 @@
         <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>275</v>
@@ -6719,18 +6714,18 @@
         <v>276</v>
       </c>
       <c r="AN42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6756,10 +6751,10 @@
         <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>271</v>
@@ -6788,14 +6783,14 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>37</v>
       </c>
@@ -6812,7 +6807,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6827,7 +6822,7 @@
         <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>275</v>
@@ -6836,18 +6831,18 @@
         <v>276</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6870,13 +6865,13 @@
         <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6927,7 +6922,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -6942,7 +6937,7 @@
         <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
@@ -6951,7 +6946,7 @@
         <v>67</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>37</v>
@@ -6959,10 +6954,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7074,10 +7069,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7191,13 +7186,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>37</v>
@@ -7219,13 +7214,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7308,10 +7303,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7337,13 +7332,13 @@
         <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7393,7 +7388,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7425,10 +7420,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7451,13 +7446,13 @@
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7508,7 +7503,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7520,16 +7515,16 @@
         <v>58</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7540,10 +7535,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7566,16 +7561,16 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7625,7 +7620,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7640,7 +7635,7 @@
         <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>37</v>
@@ -7649,7 +7644,7 @@
         <v>67</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -7657,10 +7652,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7686,10 +7681,10 @@
         <v>177</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>271</v>
@@ -7718,10 +7713,10 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>37</v>
@@ -7742,7 +7737,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7757,7 +7752,7 @@
         <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>275</v>
@@ -7766,7 +7761,7 @@
         <v>276</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -7774,10 +7769,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7803,10 +7798,10 @@
         <v>177</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>271</v>
@@ -7838,11 +7833,11 @@
         <v>182</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
       </c>
@@ -7859,7 +7854,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7874,7 +7869,7 @@
         <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>275</v>
@@ -7891,10 +7886,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7917,16 +7912,16 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7976,7 +7971,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -7991,7 +7986,7 @@
         <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>37</v>
@@ -8000,7 +7995,7 @@
         <v>67</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8008,14 +8003,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8034,16 +8029,16 @@
         <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8093,7 +8088,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8108,31 +8103,31 @@
         <v>223</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8154,10 +8149,10 @@
         <v>208</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>211</v>
@@ -8210,7 +8205,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8225,27 +8220,27 @@
         <v>213</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8271,10 +8266,10 @@
         <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>248</v>
@@ -8327,7 +8322,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8342,27 +8337,27 @@
         <v>223</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8385,13 +8380,13 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>248</v>
@@ -8444,7 +8439,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8459,27 +8454,27 @@
         <v>223</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN57" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AO57" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8502,13 +8497,13 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>248</v>
@@ -8561,7 +8556,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8576,27 +8571,27 @@
         <v>223</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8622,10 +8617,10 @@
         <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>271</v>
@@ -8654,14 +8649,14 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
       </c>
@@ -8678,7 +8673,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8693,7 +8688,7 @@
         <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>275</v>
@@ -8702,18 +8697,18 @@
         <v>276</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8736,16 +8731,16 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8795,7 +8790,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8810,13 +8805,13 @@
         <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -8827,10 +8822,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8853,13 +8848,13 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8910,7 +8905,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8925,7 +8920,7 @@
         <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
@@ -8934,7 +8929,7 @@
         <v>67</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -8942,10 +8937,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9057,10 +9052,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9174,14 +9169,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9203,10 +9198,10 @@
         <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>97</v>
@@ -9261,7 +9256,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9293,10 +9288,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9322,10 +9317,10 @@
         <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>241</v>
@@ -9378,7 +9373,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>46</v>
@@ -9393,7 +9388,7 @@
         <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
@@ -9402,7 +9397,7 @@
         <v>67</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9410,10 +9405,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9439,10 +9434,10 @@
         <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>271</v>
@@ -9495,7 +9490,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9510,7 +9505,7 @@
         <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>275</v>
@@ -9519,7 +9514,7 @@
         <v>276</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>37</v>
@@ -9527,10 +9522,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9556,10 +9551,10 @@
         <v>155</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>241</v>
@@ -9612,7 +9607,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -9627,7 +9622,7 @@
         <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>37</v>
@@ -9636,7 +9631,7 @@
         <v>67</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -9644,10 +9639,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9670,13 +9665,13 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9727,7 +9722,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -9742,7 +9737,7 @@
         <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
@@ -9759,10 +9754,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9874,10 +9869,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9991,14 +9986,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10020,10 +10015,10 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>97</v>
@@ -10078,7 +10073,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10110,10 +10105,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10139,10 +10134,10 @@
         <v>155</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>241</v>
@@ -10195,7 +10190,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10210,7 +10205,7 @@
         <v>59</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
@@ -10227,10 +10222,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10256,10 +10251,10 @@
         <v>177</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>271</v>
@@ -10291,11 +10286,11 @@
         <v>73</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
       </c>
@@ -10312,7 +10307,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10327,7 +10322,7 @@
         <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>275</v>

--- a/ig/sd-jeu-de-valeur-phase-de-lessai/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-jeu-de-valeur-phase-de-lessai/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T13:00:23+00:00</t>
+    <t>2023-07-28T15:15:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
